--- a/methods:information/Ideal Models.xlsx
+++ b/methods:information/Ideal Models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amina/Documents/Stanford/R - Spring 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amina/Documents/Stanford/precip-price/methods:information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A425A9-FEBF-A049-9DCC-36E40A4FECD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240811F3-F2EF-FA42-A907-7A9147847F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A6868BCD-C4E0-6648-BD26-B8F3C4D9A112}"/>
   </bookViews>
